--- a/data/EPA_Annual_Energy_Use_By_Meter.xlsx
+++ b/data/EPA_Annual_Energy_Use_By_Meter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="59">
   <si>
     <t>Annual Energy Use Totals</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Property: Rockefeller Center (All Bldgs) (ID 2364110)</t>
   </si>
   <si>
-    <t>07/18/2022 09:51 PM EDT</t>
+    <t>08/22/2022 08:32 AM EDT</t>
   </si>
   <si>
     <t>Year Ending Date</t>
@@ -498,7 +498,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BB155"/>
+  <dimension ref="A1:BB158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -23096,7 +23096,7 @@
         <v>7339587.17</v>
       </c>
       <c r="R143" t="n" s="8">
-        <v>4627650.32</v>
+        <v>4626850.98</v>
       </c>
       <c r="S143" t="n" s="8">
         <v>7782338.66</v>
@@ -23260,7 +23260,7 @@
         <v>7667891.91</v>
       </c>
       <c r="R144" t="n" s="8">
-        <v>4604835.22</v>
+        <v>4548766.06</v>
       </c>
       <c r="S144" t="n" s="8">
         <v>7841655.12</v>
@@ -23424,7 +23424,7 @@
         <v>7757473.26</v>
       </c>
       <c r="R145" t="n" s="8">
-        <v>4502475.22</v>
+        <v>4468172.56</v>
       </c>
       <c r="S145" t="n" s="8">
         <v>7925038.11</v>
@@ -23588,7 +23588,7 @@
         <v>7757090.71</v>
       </c>
       <c r="R146" t="n" s="8">
-        <v>4386514.21</v>
+        <v>4364644.73</v>
       </c>
       <c r="S146" t="n" s="8">
         <v>7924984.38</v>
@@ -23752,7 +23752,7 @@
         <v>7755988.82</v>
       </c>
       <c r="R147" t="n" s="8">
-        <v>4357806.31</v>
+        <v>4258007.28</v>
       </c>
       <c r="S147" t="n" s="8">
         <v>7924984.38</v>
@@ -23916,7 +23916,7 @@
         <v>7753117.16</v>
       </c>
       <c r="R148" t="n" s="8">
-        <v>4239734.86</v>
+        <v>4160192.52</v>
       </c>
       <c r="S148" t="n" s="8">
         <v>7924880.63</v>
@@ -24080,7 +24080,7 @@
         <v>7626403.5</v>
       </c>
       <c r="R149" t="n" s="8">
-        <v>4370001.35</v>
+        <v>4327307.05</v>
       </c>
       <c r="S149" t="n" s="8">
         <v>7756799.61</v>
@@ -24244,7 +24244,7 @@
         <v>6916016.78</v>
       </c>
       <c r="R150" t="n" s="8">
-        <v>4434636.4</v>
+        <v>4601479.0</v>
       </c>
       <c r="S150" t="n" s="8">
         <v>7741188.06</v>
@@ -24363,7 +24363,7 @@
         <v>1.807378585E7</v>
       </c>
       <c r="C151" t="n" s="8">
-        <v>5.02882556E7</v>
+        <v>5.02969006E7</v>
       </c>
       <c r="D151" t="n" s="8">
         <v>5.609045138E7</v>
@@ -24384,7 +24384,7 @@
         <v>490322.2</v>
       </c>
       <c r="J151" t="n" s="8">
-        <v>1.093653831E7</v>
+        <v>1.091771729E7</v>
       </c>
       <c r="K151" t="n" s="8">
         <v>2.108784331E7</v>
@@ -24408,7 +24408,7 @@
         <v>5429849.57</v>
       </c>
       <c r="R151" t="n" s="8">
-        <v>4438772.5</v>
+        <v>4859288.94</v>
       </c>
       <c r="S151" t="n" s="8">
         <v>7735013.64</v>
@@ -24527,7 +24527,7 @@
         <v>1.810671065E7</v>
       </c>
       <c r="C152" t="n" s="8">
-        <v>5.02381942E7</v>
+        <v>5.02518442E7</v>
       </c>
       <c r="D152" t="n" s="8">
         <v>6.760736998E7</v>
@@ -24572,7 +24572,7 @@
         <v>3417936.24</v>
       </c>
       <c r="R152" t="n" s="8">
-        <v>4450260.08</v>
+        <v>4910335.88</v>
       </c>
       <c r="S152" t="n" s="8">
         <v>8027695.18</v>
@@ -24690,8 +24690,8 @@
       <c r="B153" t="n" s="8">
         <v>1.829365132E7</v>
       </c>
-      <c r="C153" t="s" s="7">
-        <v>58</v>
+      <c r="C153" t="n" s="8">
+        <v>5.00560004E7</v>
       </c>
       <c r="D153" t="n" s="8">
         <v>7.319586498E7</v>
@@ -24708,8 +24708,8 @@
       <c r="H153" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="I153" t="s" s="7">
-        <v>58</v>
+      <c r="I153" t="n" s="8">
+        <v>483889.86</v>
       </c>
       <c r="J153" t="s" s="7">
         <v>58</v>
@@ -24726,8 +24726,8 @@
       <c r="N153" t="n" s="8">
         <v>1.867061906E7</v>
       </c>
-      <c r="O153" t="s" s="7">
-        <v>58</v>
+      <c r="O153" t="n" s="8">
+        <v>1.145638747E7</v>
       </c>
       <c r="P153" t="n" s="8">
         <v>7962191.94</v>
@@ -24735,8 +24735,8 @@
       <c r="Q153" t="n" s="8">
         <v>1989957.89</v>
       </c>
-      <c r="R153" t="s" s="7">
-        <v>58</v>
+      <c r="R153" t="n" s="8">
+        <v>4909371.81</v>
       </c>
       <c r="S153" t="n" s="8">
         <v>9241654.68</v>
@@ -24813,8 +24813,8 @@
       <c r="AQ153" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="AR153" t="s" s="7">
-        <v>58</v>
+      <c r="AR153" t="n" s="8">
+        <v>1.683497857E7</v>
       </c>
       <c r="AS153" t="n" s="8">
         <v>1.399963523E7</v>
@@ -24854,8 +24854,8 @@
       <c r="B154" t="n" s="8">
         <v>1.843206792E7</v>
       </c>
-      <c r="C154" t="s" s="7">
-        <v>58</v>
+      <c r="C154" t="n" s="8">
+        <v>5.00283891E7</v>
       </c>
       <c r="D154" t="n" s="8">
         <v>7.418232478E7</v>
@@ -24872,8 +24872,8 @@
       <c r="H154" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="I154" t="s" s="7">
-        <v>58</v>
+      <c r="I154" t="n" s="8">
+        <v>479374.25</v>
       </c>
       <c r="J154" t="s" s="7">
         <v>58</v>
@@ -24890,17 +24890,17 @@
       <c r="N154" t="n" s="8">
         <v>1.997667002E7</v>
       </c>
-      <c r="O154" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="P154" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q154" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="R154" t="s" s="7">
-        <v>58</v>
+      <c r="O154" t="n" s="8">
+        <v>1.192872876E7</v>
+      </c>
+      <c r="P154" t="n" s="8">
+        <v>7914767.86</v>
+      </c>
+      <c r="Q154" t="n" s="8">
+        <v>1038744.69</v>
+      </c>
+      <c r="R154" t="n" s="8">
+        <v>4929428.92</v>
       </c>
       <c r="S154" t="n" s="8">
         <v>1.050804246E7</v>
@@ -24977,8 +24977,8 @@
       <c r="AQ154" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="AR154" t="s" s="7">
-        <v>58</v>
+      <c r="AR154" t="n" s="8">
+        <v>1.673913092E7</v>
       </c>
       <c r="AS154" t="n" s="8">
         <v>1.441416073E7</v>
@@ -25015,11 +25015,11 @@
       <c r="A155" t="n" s="10">
         <v>44681.0</v>
       </c>
-      <c r="B155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C155" t="s" s="7">
-        <v>58</v>
+      <c r="B155" t="n" s="8">
+        <v>1.836300774E7</v>
+      </c>
+      <c r="C155" t="n" s="8">
+        <v>5.01697137E7</v>
       </c>
       <c r="D155" t="n" s="8">
         <v>7.57808334E7</v>
@@ -25027,17 +25027,17 @@
       <c r="E155" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="F155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="G155" t="s" s="7">
-        <v>58</v>
+      <c r="F155" t="n" s="8">
+        <v>1.838246497E7</v>
+      </c>
+      <c r="G155" t="n" s="8">
+        <v>1.340248248E7</v>
       </c>
       <c r="H155" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="I155" t="s" s="7">
-        <v>58</v>
+      <c r="I155" t="n" s="8">
+        <v>475640.87</v>
       </c>
       <c r="J155" t="s" s="7">
         <v>58</v>
@@ -25054,20 +25054,20 @@
       <c r="N155" t="n" s="8">
         <v>2.121171402E7</v>
       </c>
-      <c r="O155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="P155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="R155" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="S155" t="s" s="7">
-        <v>58</v>
+      <c r="O155" t="n" s="8">
+        <v>1.244528535E7</v>
+      </c>
+      <c r="P155" t="n" s="8">
+        <v>8025760.81</v>
+      </c>
+      <c r="Q155" t="n" s="8">
+        <v>500113.52</v>
+      </c>
+      <c r="R155" t="n" s="8">
+        <v>4928773.85</v>
+      </c>
+      <c r="S155" t="n" s="8">
+        <v>1.10107581E7</v>
       </c>
       <c r="T155" t="s" s="7">
         <v>58</v>
@@ -25141,8 +25141,8 @@
       <c r="AQ155" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="AR155" t="s" s="7">
-        <v>58</v>
+      <c r="AR155" t="n" s="8">
+        <v>1.665844648E7</v>
       </c>
       <c r="AS155" t="n" s="8">
         <v>1.508740231E7</v>
@@ -25172,6 +25172,498 @@
         <v>58</v>
       </c>
       <c r="BB155" t="s" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" ht="30.0" customHeight="true">
+      <c r="A156" t="n" s="10">
+        <v>44712.0</v>
+      </c>
+      <c r="B156" t="n" s="8">
+        <v>1.840904821E7</v>
+      </c>
+      <c r="C156" t="n" s="8">
+        <v>5.01097072E7</v>
+      </c>
+      <c r="D156" t="n" s="8">
+        <v>7.663138756E7</v>
+      </c>
+      <c r="E156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="F156" t="n" s="8">
+        <v>1.848390568E7</v>
+      </c>
+      <c r="G156" t="n" s="8">
+        <v>1.319833584E7</v>
+      </c>
+      <c r="H156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="I156" t="n" s="8">
+        <v>473365.48</v>
+      </c>
+      <c r="J156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="K156" t="n" s="8">
+        <v>2.195801363E7</v>
+      </c>
+      <c r="L156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="M156" t="n" s="8">
+        <v>1.384569882E8</v>
+      </c>
+      <c r="N156" t="n" s="8">
+        <v>2.175826735E7</v>
+      </c>
+      <c r="O156" t="n" s="8">
+        <v>1.300745405E7</v>
+      </c>
+      <c r="P156" t="n" s="8">
+        <v>8153246.9</v>
+      </c>
+      <c r="Q156" t="n" s="8">
+        <v>166555.04</v>
+      </c>
+      <c r="R156" t="n" s="8">
+        <v>4928773.85</v>
+      </c>
+      <c r="S156" t="n" s="8">
+        <v>1.093676834E7</v>
+      </c>
+      <c r="T156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="U156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="V156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="W156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="X156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Y156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Z156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AA156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AB156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AC156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AD156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AE156" t="n" s="8">
+        <v>2.030617729E7</v>
+      </c>
+      <c r="AF156" t="n" s="8">
+        <v>1.593443826E7</v>
+      </c>
+      <c r="AG156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AH156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>1.124367769E7</v>
+      </c>
+      <c r="AJ156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AK156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AL156" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AM156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AN156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AO156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AP156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AQ156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AR156" t="n" s="8">
+        <v>1.656116583E7</v>
+      </c>
+      <c r="AS156" t="n" s="8">
+        <v>1.531477946E7</v>
+      </c>
+      <c r="AT156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AU156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AV156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AW156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AX156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AY156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AZ156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BA156" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BB156" t="s" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" ht="30.0" customHeight="true">
+      <c r="A157" t="n" s="10">
+        <v>44742.0</v>
+      </c>
+      <c r="B157" t="n" s="8">
+        <v>1.866323093E7</v>
+      </c>
+      <c r="C157" t="n" s="8">
+        <v>4.99244492E7</v>
+      </c>
+      <c r="D157" t="n" s="8">
+        <v>7.681615887E7</v>
+      </c>
+      <c r="E157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="F157" t="n" s="8">
+        <v>1.849178778E7</v>
+      </c>
+      <c r="G157" t="n" s="8">
+        <v>1.318209751E7</v>
+      </c>
+      <c r="H157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="I157" t="n" s="8">
+        <v>470864.82</v>
+      </c>
+      <c r="J157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="K157" t="n" s="8">
+        <v>2.195176246E7</v>
+      </c>
+      <c r="L157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="M157" t="n" s="8">
+        <v>1.392277906E8</v>
+      </c>
+      <c r="N157" t="n" s="8">
+        <v>2.182914033E7</v>
+      </c>
+      <c r="O157" t="n" s="8">
+        <v>1.360152865E7</v>
+      </c>
+      <c r="P157" t="n" s="8">
+        <v>8253628.0</v>
+      </c>
+      <c r="Q157" t="n" s="8">
+        <v>75144.39</v>
+      </c>
+      <c r="R157" t="n" s="8">
+        <v>4928099.57</v>
+      </c>
+      <c r="S157" t="n" s="8">
+        <v>1.085224707E7</v>
+      </c>
+      <c r="T157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="V157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="W157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="X157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Y157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Z157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AA157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AB157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AC157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AD157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AE157" t="n" s="8">
+        <v>2.027892375E7</v>
+      </c>
+      <c r="AF157" t="n" s="8">
+        <v>1.652834232E7</v>
+      </c>
+      <c r="AG157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AH157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AI157" t="n" s="8">
+        <v>1.115512495E7</v>
+      </c>
+      <c r="AJ157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AK157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AL157" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AM157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AN157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AO157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AP157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AQ157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AR157" t="n" s="8">
+        <v>1.647231741E7</v>
+      </c>
+      <c r="AS157" t="n" s="8">
+        <v>1.529421006E7</v>
+      </c>
+      <c r="AT157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AU157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AV157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AW157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AX157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AY157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AZ157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BA157" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BB157" t="s" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" ht="30.0" customHeight="true">
+      <c r="A158" t="n" s="10">
+        <v>44773.0</v>
+      </c>
+      <c r="B158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="D158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="E158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="F158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="G158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="H158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="I158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="J158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="K158" t="n" s="8">
+        <v>2.195122516E7</v>
+      </c>
+      <c r="L158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="M158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="N158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="O158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="P158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Q158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="R158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="S158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="T158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="V158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="W158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="X158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Y158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="Z158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AA158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AB158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AC158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AD158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AE158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AF158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AG158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AH158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AI158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AJ158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AK158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AL158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AM158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AN158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AO158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AP158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AQ158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AR158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AS158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AT158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AU158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AV158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AW158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AX158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AY158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="AZ158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BA158" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="BB158" t="s" s="7">
         <v>58</v>
       </c>
     </row>
